--- a/medicine/Enfance/Max-André_Dazergues/Max-André_Dazergues.xlsx
+++ b/medicine/Enfance/Max-André_Dazergues/Max-André_Dazergues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Max-Andr%C3%A9_Dazergues</t>
+          <t>Max-André_Dazergues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Compère, dit Max-André Dazergues, né le 12 juin 1903 à Lyon où il est mort le 4 novembre 1963[1], est un romancier français, auteur de romans pour la jeunesse, de romans de science-fiction et de romans policiers, notamment avec son personnage Le Bossu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Compère, dit Max-André Dazergues, né le 12 juin 1903 à Lyon où il est mort le 4 novembre 1963, est un romancier français, auteur de romans pour la jeunesse, de romans de science-fiction et de romans policiers, notamment avec son personnage Le Bossu.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Max-Andr%C3%A9_Dazergues</t>
+          <t>Max-André_Dazergues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient le Grand Prix Littéraire de Lyon 1938 pour son roman Montée des Anges.
 Il utilisait également les pseudonymes André Mad, Paul Madandre, André Madandre et André Star. On a longtemps soupçonné Max-André Dazergues d'être un pseudonyme de Georges Simenon. Près de cinq cents titres furent publiés sous ces divers noms entre 1928 et 1963.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Max-Andr%C3%A9_Dazergues</t>
+          <t>Max-André_Dazergues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Île aérienne - Éditions DIDEROT Collection "Pour la jeunesse"
 La Croix de fumée - Éditions du Hublot
@@ -588,7 +604,7 @@
 Le Bossu a perdu la boussole - Collection Le verrou no 60, 1953
 L’Antre des Dieux Mon roman d'aventures no 244, 1953
 Le Bossu est dans la Lune - Collection Le verrou no 66, 1953
-L'Affaire du Paris-Rome[2], Collection Mon roman policier, no 350, Ferenczi, 1954
+L'Affaire du Paris-Rome, Collection Mon roman policier, no 350, Ferenczi, 1954
 La Sphère engloutie Mon roman d'aventures no 288, 1954
 La Spirale du diable Mon roman d'aventures no 293, 1954
 La Pyramide de la mort Mon roman d'aventures no 299, 1954
